--- a/testData/Keywords.xlsx
+++ b/testData/Keywords.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13691" windowHeight="7404" firstSheet="3" activeTab="3"/>
+    <workbookView windowWidth="17171" windowHeight="7404"/>
   </bookViews>
   <sheets>
     <sheet name="LogIn" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,7 @@
     <t>nav-cart</t>
   </si>
   <si>
-    <t>deleteAllInCart</t>
+    <t>removeAllElements</t>
   </si>
   <si>
     <t>deleteButton</t>
@@ -1221,7 +1221,7 @@
   <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
@@ -1692,13 +1692,13 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="15.4" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="14.4" customWidth="1"/>
     <col min="5" max="5" width="13.6" customWidth="1"/>
     <col min="6" max="6" width="12.8" customWidth="1"/>
@@ -1806,7 +1806,7 @@
   <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
